--- a/output/semantic_labor_indices.xlsx
+++ b/output/semantic_labor_indices.xlsx
@@ -595,13 +595,13 @@
         <v>35.7295165874614</v>
       </c>
       <c r="G2" t="n">
-        <v>50.9601310757537</v>
+        <v>44.3205298644423</v>
       </c>
       <c r="H2" t="n">
-        <v>16.1512297772192</v>
+        <v>35.7244662299921</v>
       </c>
       <c r="I2" t="n">
-        <v>10.4546178095214</v>
+        <v>5.48246895297112</v>
       </c>
       <c r="J2" t="n">
         <v>78.4306778308207</v>
@@ -616,7 +616,7 @@
         <v>42.2518109882476</v>
       </c>
       <c r="N2" t="n">
-        <v>55.263170488968</v>
+        <v>53.6032701861402</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -644,13 +644,13 @@
         <v>11.5350702303534</v>
       </c>
       <c r="G3" t="n">
-        <v>19.2098911674123</v>
+        <v>14.8057749667311</v>
       </c>
       <c r="H3" t="n">
-        <v>35.2571572461826</v>
+        <v>48.6800934772859</v>
       </c>
       <c r="I3" t="n">
-        <v>15.8187432849739</v>
+        <v>13.0563524676028</v>
       </c>
       <c r="J3" t="n">
         <v>39.6427680571097</v>
@@ -665,7 +665,7 @@
         <v>84.9863850326765</v>
       </c>
       <c r="N3" t="n">
-        <v>31.3159738358387</v>
+        <v>30.2149447856684</v>
       </c>
       <c r="O3" t="n">
         <v>30.7744632846129</v>
@@ -680,7 +680,7 @@
         <v>18.6863672952272</v>
       </c>
       <c r="S3" t="n">
-        <v>32.2694187618363</v>
+        <v>25.8408578110328</v>
       </c>
     </row>
     <row r="4">
@@ -703,13 +703,13 @@
         <v>8.79451506786685</v>
       </c>
       <c r="G4" t="n">
-        <v>26.6382340423428</v>
+        <v>18.3962686019249</v>
       </c>
       <c r="H4" t="n">
-        <v>18.1939965398661</v>
+        <v>24.8922193906575</v>
       </c>
       <c r="I4" t="n">
-        <v>2.19451003247356</v>
+        <v>22.9778712540833</v>
       </c>
       <c r="J4" t="n">
         <v>12.7386834249374</v>
@@ -724,7 +724,7 @@
         <v>83.0033787397952</v>
       </c>
       <c r="N4" t="n">
-        <v>34.3788661694382</v>
+        <v>32.3183748093338</v>
       </c>
       <c r="O4" t="n">
         <v>17.7699884107227</v>
@@ -739,7 +739,7 @@
         <v>6.77652843274009</v>
       </c>
       <c r="S4" t="n">
-        <v>21.6790379815374</v>
+        <v>17.3318488032795</v>
       </c>
     </row>
     <row r="5">
@@ -762,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>19.1889887348572</v>
+        <v>18.7935028411824</v>
       </c>
       <c r="H5" t="n">
-        <v>16.8165120498205</v>
+        <v>21.2491484776285</v>
       </c>
       <c r="I5" t="n">
-        <v>6.22478425270928</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>32.5286677523071</v>
@@ -783,7 +783,7 @@
         <v>83.9731083210582</v>
       </c>
       <c r="N5" t="n">
-        <v>27.8482310780663</v>
+        <v>27.7493596046476</v>
       </c>
       <c r="O5" t="n">
         <v>22.8768124412493</v>
@@ -798,7 +798,7 @@
         <v>3.76891446448582</v>
       </c>
       <c r="S5" t="n">
-        <v>27.336662169767</v>
+        <v>21.5991142259892</v>
       </c>
     </row>
     <row r="6">
@@ -821,13 +821,13 @@
         <v>2.51222832559061</v>
       </c>
       <c r="G6" t="n">
-        <v>36.182763732101</v>
+        <v>27.6075712348603</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46835072504793</v>
+        <v>23.5861948294335</v>
       </c>
       <c r="I6" t="n">
-        <v>25.5538418395962</v>
+        <v>25.9680037097148</v>
       </c>
       <c r="J6" t="n">
         <v>9.74309844925953</v>
@@ -842,7 +842,7 @@
         <v>76.909497273013</v>
       </c>
       <c r="N6" t="n">
-        <v>43.8829382136071</v>
+        <v>41.7391400892969</v>
       </c>
       <c r="O6" t="n">
         <v>24.4481028997022</v>
@@ -857,7 +857,7 @@
         <v>9.25180979761287</v>
       </c>
       <c r="S6" t="n">
-        <v>26.9067152785386</v>
+        <v>19.912276378919</v>
       </c>
     </row>
     <row r="7">
@@ -880,13 +880,13 @@
         <v>25.243201067248</v>
       </c>
       <c r="G7" t="n">
-        <v>25.3483933686575</v>
+        <v>13.3357550607145</v>
       </c>
       <c r="H7" t="n">
-        <v>31.3003470887771</v>
+        <v>32.409843612332</v>
       </c>
       <c r="I7" t="n">
-        <v>41.6675231168129</v>
+        <v>35.6354768185311</v>
       </c>
       <c r="J7" t="n">
         <v>7.54449641005008</v>
@@ -901,7 +901,7 @@
         <v>89.6359755062769</v>
       </c>
       <c r="N7" t="n">
-        <v>34.330988447738</v>
+        <v>31.3278288707522</v>
       </c>
       <c r="O7" t="n">
         <v>26.7500950548001</v>
@@ -916,7 +916,7 @@
         <v>15.9051792171906</v>
       </c>
       <c r="S7" t="n">
-        <v>27.3889239744176</v>
+        <v>17.9592442040831</v>
       </c>
     </row>
     <row r="8">
@@ -939,13 +939,13 @@
         <v>19.9601082587332</v>
       </c>
       <c r="G8" t="n">
-        <v>20.6356148224943</v>
+        <v>12.9344063166747</v>
       </c>
       <c r="H8" t="n">
-        <v>6.06951539091685</v>
+        <v>16.1892448433495</v>
       </c>
       <c r="I8" t="n">
-        <v>7.49180860170617</v>
+        <v>2.18848768106215</v>
       </c>
       <c r="J8" t="n">
         <v>35.5108420963618</v>
@@ -960,7 +960,7 @@
         <v>77.6979006355859</v>
       </c>
       <c r="N8" t="n">
-        <v>32.334867598324</v>
+        <v>30.4095654718691</v>
       </c>
       <c r="O8" t="n">
         <v>19.4781403219077</v>
@@ -975,7 +975,7 @@
         <v>32.4183541813618</v>
       </c>
       <c r="S8" t="n">
-        <v>23.132448419785</v>
+        <v>14.0764192779957</v>
       </c>
     </row>
     <row r="9">
@@ -998,13 +998,13 @@
         <v>52.0517532181043</v>
       </c>
       <c r="G9" t="n">
-        <v>23.4133370682031</v>
+        <v>15.9590964565979</v>
       </c>
       <c r="H9" t="n">
-        <v>32.0176866902071</v>
+        <v>50.4939077215746</v>
       </c>
       <c r="I9" t="n">
-        <v>13.4897500680725</v>
+        <v>8.03243847824556</v>
       </c>
       <c r="J9" t="n">
         <v>54.0619124297412</v>
@@ -1019,7 +1019,7 @@
         <v>77.4192729697639</v>
       </c>
       <c r="N9" t="n">
-        <v>26.0935754817201</v>
+        <v>24.2300153288188</v>
       </c>
       <c r="O9" t="n">
         <v>14.732141677013</v>
@@ -1034,7 +1034,7 @@
         <v>26.7305484069263</v>
       </c>
       <c r="S9" t="n">
-        <v>20.5883690755737</v>
+        <v>15.0670524172786</v>
       </c>
     </row>
     <row r="10">
@@ -1057,13 +1057,13 @@
         <v>8.1797837439414</v>
       </c>
       <c r="G10" t="n">
-        <v>17.7161553360237</v>
+        <v>16.3076544785632</v>
       </c>
       <c r="H10" t="n">
-        <v>16.4783003773469</v>
+        <v>53.076409257068</v>
       </c>
       <c r="I10" t="n">
-        <v>19.3494111048794</v>
+        <v>20.5870373039397</v>
       </c>
       <c r="J10" t="n">
         <v>29.5009526825345</v>
@@ -1078,7 +1078,7 @@
         <v>84.604673193357</v>
       </c>
       <c r="N10" t="n">
-        <v>25.7852687324298</v>
+        <v>25.4331435180647</v>
       </c>
       <c r="O10" t="n">
         <v>12.3527755901837</v>
@@ -1093,7 +1093,7 @@
         <v>24.3329622144231</v>
       </c>
       <c r="S10" t="n">
-        <v>19.9367162375181</v>
+        <v>14.2769784826135</v>
       </c>
     </row>
     <row r="11">
@@ -1116,10 +1116,10 @@
         <v>12.7673496812237</v>
       </c>
       <c r="G11" t="n">
-        <v>18.6806563083275</v>
+        <v>10.5641845126794</v>
       </c>
       <c r="H11" t="n">
-        <v>66.3441908242086</v>
+        <v>54.6355249319857</v>
       </c>
       <c r="I11" t="n">
         <v>100</v>
@@ -1137,7 +1137,7 @@
         <v>44.2884135161035</v>
       </c>
       <c r="N11" t="n">
-        <v>22.9942811875514</v>
+        <v>20.9651632386394</v>
       </c>
       <c r="O11" t="n">
         <v>13.9558870179769</v>
@@ -1152,7 +1152,7 @@
         <v>13.9462626371862</v>
       </c>
       <c r="S11" t="n">
-        <v>16.1930151566502</v>
+        <v>10.7434926675932</v>
       </c>
     </row>
     <row r="12">
@@ -1175,13 +1175,13 @@
         <v>20.8916544863936</v>
       </c>
       <c r="G12" t="n">
-        <v>12.1822338255994</v>
+        <v>5.358639011537</v>
       </c>
       <c r="H12" t="n">
-        <v>27.9565557399806</v>
+        <v>62.1009376342387</v>
       </c>
       <c r="I12" t="n">
-        <v>32.2116283417461</v>
+        <v>41.3494087642013</v>
       </c>
       <c r="J12" t="n">
         <v>27.674381086208</v>
@@ -1196,7 +1196,7 @@
         <v>66.7707927077365</v>
       </c>
       <c r="N12" t="n">
-        <v>22.4787434904757</v>
+        <v>20.7728447869601</v>
       </c>
       <c r="O12" t="n">
         <v>24.3178529765618</v>
@@ -1211,7 +1211,7 @@
         <v>18.9638906026993</v>
       </c>
       <c r="S12" t="n">
-        <v>26.7317403607553</v>
+        <v>19.7514814709594</v>
       </c>
     </row>
     <row r="13">
@@ -1234,13 +1234,13 @@
         <v>23.2326676404807</v>
       </c>
       <c r="G13" t="n">
-        <v>49.332330948339</v>
+        <v>43.3316208886619</v>
       </c>
       <c r="H13" t="n">
-        <v>29.1086536695719</v>
+        <v>33.8434250918266</v>
       </c>
       <c r="I13" t="n">
-        <v>35.9531943098965</v>
+        <v>38.3175600193917</v>
       </c>
       <c r="J13" t="n">
         <v>45.9889137489043</v>
@@ -1255,7 +1255,7 @@
         <v>39.4446598880992</v>
       </c>
       <c r="N13" t="n">
-        <v>40.4171200016359</v>
+        <v>38.9169424867166</v>
       </c>
       <c r="O13" t="n">
         <v>19.0991329646074</v>
@@ -1270,7 +1270,7 @@
         <v>17.6170132532854</v>
       </c>
       <c r="S13" t="n">
-        <v>21.7575871550845</v>
+        <v>16.2300866333996</v>
       </c>
     </row>
     <row r="14">
@@ -1293,13 +1293,13 @@
         <v>8.72671763298194</v>
       </c>
       <c r="G14" t="n">
-        <v>3.758196691315</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.3425386933167</v>
+        <v>22.0643858113679</v>
       </c>
       <c r="I14" t="n">
-        <v>7.23370623091344</v>
+        <v>9.89615051859512</v>
       </c>
       <c r="J14" t="n">
         <v>8.95671340348071</v>
@@ -1314,7 +1314,7 @@
         <v>62.3670845654611</v>
       </c>
       <c r="N14" t="n">
-        <v>15.0873406056095</v>
+        <v>14.1477914327808</v>
       </c>
       <c r="O14" t="n">
         <v>22.337493227823</v>
@@ -1329,7 +1329,7 @@
         <v>15.2822998463612</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2362296680673</v>
+        <v>25.7759338989614</v>
       </c>
     </row>
     <row r="15">
@@ -1352,13 +1352,13 @@
         <v>13.8875142656209</v>
       </c>
       <c r="G15" t="n">
-        <v>34.6181613645479</v>
+        <v>33.9961808082224</v>
       </c>
       <c r="H15" t="n">
-        <v>20.4154466284274</v>
+        <v>25.2960709169164</v>
       </c>
       <c r="I15" t="n">
-        <v>8.24814039055182</v>
+        <v>3.05063126690366</v>
       </c>
       <c r="J15" t="n">
         <v>7.24548510885426</v>
@@ -1373,7 +1373,7 @@
         <v>61.615196294601</v>
       </c>
       <c r="N15" t="n">
-        <v>36.4433721202009</v>
+        <v>36.2878769811196</v>
       </c>
       <c r="O15" t="n">
         <v>12.7243558809581</v>
@@ -1388,7 +1388,7 @@
         <v>10.9414183993603</v>
       </c>
       <c r="S15" t="n">
-        <v>15.0786977592839</v>
+        <v>14.7135140035403</v>
       </c>
     </row>
     <row r="16">
@@ -1411,13 +1411,13 @@
         <v>10.210023299478</v>
       </c>
       <c r="G16" t="n">
-        <v>6.85973522198869</v>
+        <v>10.1443612023984</v>
       </c>
       <c r="H16" t="n">
-        <v>36.4303034212015</v>
+        <v>41.3862545600081</v>
       </c>
       <c r="I16" t="n">
-        <v>32.3195716087179</v>
+        <v>19.9753079491568</v>
       </c>
       <c r="J16" t="n">
         <v>31.4899630408706</v>
@@ -1432,7 +1432,7 @@
         <v>67.5971354350233</v>
       </c>
       <c r="N16" t="n">
-        <v>17.2270184335177</v>
+        <v>18.0481749286202</v>
       </c>
       <c r="O16" t="n">
         <v>24.6692550758943</v>
@@ -1447,7 +1447,7 @@
         <v>25.5811825911403</v>
       </c>
       <c r="S16" t="n">
-        <v>23.4542885258651</v>
+        <v>24.222759096502</v>
       </c>
     </row>
     <row r="17">
@@ -1470,13 +1470,13 @@
         <v>52.6460102083219</v>
       </c>
       <c r="G17" t="n">
-        <v>28.8849689910588</v>
+        <v>28.5277352788852</v>
       </c>
       <c r="H17" t="n">
-        <v>43.7082426473307</v>
+        <v>73.1650481232294</v>
       </c>
       <c r="I17" t="n">
-        <v>13.4852365153266</v>
+        <v>16.9359096483313</v>
       </c>
       <c r="J17" t="n">
         <v>21.6880808612798</v>
@@ -1491,7 +1491,7 @@
         <v>38.4043111013387</v>
       </c>
       <c r="N17" t="n">
-        <v>29.9406669663959</v>
+        <v>29.8513585383525</v>
       </c>
       <c r="O17" t="n">
         <v>28.7146129591956</v>
@@ -1506,7 +1506,7 @@
         <v>29.4871568635496</v>
       </c>
       <c r="S17" t="n">
-        <v>23.8949897782818</v>
+        <v>23.9295970275729</v>
       </c>
     </row>
     <row r="18">
@@ -1529,13 +1529,13 @@
         <v>25.605437082849</v>
       </c>
       <c r="G18" t="n">
-        <v>35.9402651217978</v>
+        <v>33.1166946014351</v>
       </c>
       <c r="H18" t="n">
-        <v>12.8137349990486</v>
+        <v>28.17103500729</v>
       </c>
       <c r="I18" t="n">
-        <v>20.2282888985672</v>
+        <v>9.30006333975366</v>
       </c>
       <c r="J18" t="n">
         <v>63.8586717389825</v>
@@ -1550,7 +1550,7 @@
         <v>50.9324524627802</v>
       </c>
       <c r="N18" t="n">
-        <v>35.9249413601085</v>
+        <v>35.2190487300178</v>
       </c>
       <c r="O18" t="n">
         <v>30.2829918241684</v>
@@ -1565,7 +1565,7 @@
         <v>42.4390100756406</v>
       </c>
       <c r="S18" t="n">
-        <v>27.5328257705278</v>
+        <v>25.7646848738727</v>
       </c>
     </row>
     <row r="19">
@@ -1588,13 +1588,13 @@
         <v>49.0655829357508</v>
       </c>
       <c r="G19" t="n">
-        <v>17.7732431987268</v>
+        <v>15.6496247412979</v>
       </c>
       <c r="H19" t="n">
-        <v>24.4788275711216</v>
+        <v>17.0369918679116</v>
       </c>
       <c r="I19" t="n">
-        <v>21.3516545148626</v>
+        <v>15.9341525620218</v>
       </c>
       <c r="J19" t="n">
         <v>8.58410864359238</v>
@@ -1609,7 +1609,7 @@
         <v>61.710581924407</v>
       </c>
       <c r="N19" t="n">
-        <v>28.0619987133788</v>
+        <v>27.5310940990215</v>
       </c>
       <c r="O19" t="n">
         <v>27.8637705320037</v>
@@ -1624,7 +1624,7 @@
         <v>36.3300058814283</v>
       </c>
       <c r="S19" t="n">
-        <v>27.8026264432015</v>
+        <v>25.6504926772409</v>
       </c>
     </row>
     <row r="20">
@@ -1647,13 +1647,13 @@
         <v>34.3189976256851</v>
       </c>
       <c r="G20" t="n">
-        <v>29.69437100908</v>
+        <v>28.1851586889897</v>
       </c>
       <c r="H20" t="n">
-        <v>69.3882876114347</v>
+        <v>66.2281016477593</v>
       </c>
       <c r="I20" t="n">
-        <v>15.2768248346624</v>
+        <v>34.4726896962436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>73.3133514746177</v>
       </c>
       <c r="N20" t="n">
-        <v>32.7226227270257</v>
+        <v>32.3453196470031</v>
       </c>
       <c r="O20" t="n">
         <v>31.2495933864005</v>
@@ -1683,7 +1683,7 @@
         <v>38.3637154684566</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8909828662427</v>
+        <v>24.0070560881795</v>
       </c>
     </row>
     <row r="21">
@@ -1706,13 +1706,13 @@
         <v>31.706565843934</v>
       </c>
       <c r="G21" t="n">
-        <v>42.2053343909215</v>
+        <v>28.1863848342508</v>
       </c>
       <c r="H21" t="n">
-        <v>53.4716979657221</v>
+        <v>62.8931098787843</v>
       </c>
       <c r="I21" t="n">
-        <v>22.8580890051855</v>
+        <v>8.05794688492367</v>
       </c>
       <c r="J21" t="n">
         <v>23.3102073442748</v>
@@ -1727,7 +1727,7 @@
         <v>71.0285297167389</v>
       </c>
       <c r="N21" t="n">
-        <v>51.5094735397189</v>
+        <v>48.0047361505512</v>
       </c>
       <c r="O21" t="n">
         <v>37.8895961768213</v>
@@ -1742,7 +1742,7 @@
         <v>26.2150701511977</v>
       </c>
       <c r="S21" t="n">
-        <v>36.4732407508831</v>
+        <v>30.6773675996709</v>
       </c>
     </row>
     <row r="22">
@@ -1765,13 +1765,13 @@
         <v>12.6196469839739</v>
       </c>
       <c r="G22" t="n">
-        <v>37.5200168526479</v>
+        <v>35.6605592757721</v>
       </c>
       <c r="H22" t="n">
-        <v>56.5513281138879</v>
+        <v>74.079582833987</v>
       </c>
       <c r="I22" t="n">
-        <v>23.9517007027152</v>
+        <v>18.7966927304907</v>
       </c>
       <c r="J22" t="n">
         <v>45.4071790447308</v>
@@ -1786,7 +1786,7 @@
         <v>60.3646233357769</v>
       </c>
       <c r="N22" t="n">
-        <v>37.7694045887946</v>
+        <v>37.3045401945756</v>
       </c>
       <c r="O22" t="n">
         <v>43.6746823777273</v>
@@ -1801,7 +1801,7 @@
         <v>22.630587933325</v>
       </c>
       <c r="S22" t="n">
-        <v>39.2908924739093</v>
+        <v>34.7849271488968</v>
       </c>
     </row>
     <row r="23">
@@ -1824,13 +1824,13 @@
         <v>23.5655509720673</v>
       </c>
       <c r="G23" t="n">
-        <v>38.1473261781586</v>
+        <v>40.5078373366673</v>
       </c>
       <c r="H23" t="n">
-        <v>84.7350087434833</v>
+        <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>44.7694045084029</v>
+        <v>59.4691036175375</v>
       </c>
       <c r="J23" t="n">
         <v>26.4425465346451</v>
@@ -1845,7 +1845,7 @@
         <v>7.45692074806339</v>
       </c>
       <c r="N23" t="n">
-        <v>32.8918504948899</v>
+        <v>33.4819782845171</v>
       </c>
       <c r="O23" t="n">
         <v>39.538082757812</v>
@@ -1860,7 +1860,7 @@
         <v>16.7971088427937</v>
       </c>
       <c r="S23" t="n">
-        <v>37.2753903381234</v>
+        <v>36.9056588265619</v>
       </c>
     </row>
     <row r="24">
@@ -1883,13 +1883,13 @@
         <v>14.2061285723399</v>
       </c>
       <c r="G24" t="n">
-        <v>36.1588279835636</v>
+        <v>34.5485798672464</v>
       </c>
       <c r="H24" t="n">
-        <v>56.6786250544405</v>
+        <v>50.3073430121972</v>
       </c>
       <c r="I24" t="n">
-        <v>19.3262353819127</v>
+        <v>47.2990555173385</v>
       </c>
       <c r="J24" t="n">
         <v>65.0661078662438</v>
@@ -1904,7 +1904,7 @@
         <v>58.2329487481597</v>
       </c>
       <c r="N24" t="n">
-        <v>36.8310223940246</v>
+        <v>36.4284603649453</v>
       </c>
       <c r="O24" t="n">
         <v>38.1759574872996</v>
@@ -1919,7 +1919,7 @@
         <v>21.8867841114294</v>
       </c>
       <c r="S24" t="n">
-        <v>30.2704927984953</v>
+        <v>30.92533116103</v>
       </c>
     </row>
     <row r="25">
@@ -1942,13 +1942,13 @@
         <v>27.888672789881</v>
       </c>
       <c r="G25" t="n">
-        <v>16.5053242337638</v>
+        <v>17.7195762791762</v>
       </c>
       <c r="H25" t="n">
-        <v>87.3431850641413</v>
+        <v>84.2220376807181</v>
       </c>
       <c r="I25" t="n">
-        <v>39.5401009534492</v>
+        <v>46.5555423264674</v>
       </c>
       <c r="J25" t="n">
         <v>93.0883286943661</v>
@@ -1963,7 +1963,7 @@
         <v>51.7409272940602</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2511239287483</v>
+        <v>24.5546869401014</v>
       </c>
       <c r="O25" t="n">
         <v>35.1133967384741</v>
@@ -1978,7 +1978,7 @@
         <v>17.4486965036802</v>
       </c>
       <c r="S25" t="n">
-        <v>22.2421875620091</v>
+        <v>22.0699323559758</v>
       </c>
     </row>
     <row r="26">
@@ -2001,13 +2001,13 @@
         <v>10.2512881488197</v>
       </c>
       <c r="G26" t="n">
-        <v>14.0624104686998</v>
+        <v>13.9416409215048</v>
       </c>
       <c r="H26" t="n">
-        <v>100</v>
+        <v>92.6308920961765</v>
       </c>
       <c r="I26" t="n">
-        <v>21.9932259683275</v>
+        <v>24.9856614641171</v>
       </c>
       <c r="J26" t="n">
         <v>45.2380257802949</v>
@@ -2022,7 +2022,7 @@
         <v>16.0482512342484</v>
       </c>
       <c r="N26" t="n">
-        <v>26.6384613181224</v>
+        <v>26.6082689313236</v>
       </c>
       <c r="O26" t="n">
         <v>27.8336522903002</v>
@@ -2037,7 +2037,7 @@
         <v>25.1062948294346</v>
       </c>
       <c r="S26" t="n">
-        <v>15.4750266556568</v>
+        <v>15.5634685751912</v>
       </c>
     </row>
     <row r="27">
@@ -2060,13 +2060,13 @@
         <v>37.178923549603</v>
       </c>
       <c r="G27" t="n">
-        <v>15.8573452645068</v>
+        <v>15.0291885248926</v>
       </c>
       <c r="H27" t="n">
-        <v>33.4228600566784</v>
+        <v>30.5319066864984</v>
       </c>
       <c r="I27" t="n">
-        <v>19.5446649107216</v>
+        <v>23.9641332228745</v>
       </c>
       <c r="J27" t="n">
         <v>11.8834270089323</v>
@@ -2081,7 +2081,7 @@
         <v>51.2338019041581</v>
       </c>
       <c r="N27" t="n">
-        <v>21.3479152337436</v>
+        <v>21.14087604884</v>
       </c>
       <c r="O27" t="n">
         <v>25.4929201637925</v>
@@ -2096,7 +2096,7 @@
         <v>25.7094469867764</v>
       </c>
       <c r="S27" t="n">
-        <v>17.9441960631708</v>
+        <v>17.1878330173174</v>
       </c>
     </row>
     <row r="28">
@@ -2119,13 +2119,13 @@
         <v>29.6981292619065</v>
       </c>
       <c r="G28" t="n">
-        <v>23.9128324563058</v>
+        <v>22.5926696055547</v>
       </c>
       <c r="H28" t="n">
-        <v>16.255436441223</v>
+        <v>27.1436172051203</v>
       </c>
       <c r="I28" t="n">
-        <v>2.43831616965589</v>
+        <v>11.016833488727</v>
       </c>
       <c r="J28" t="n">
         <v>45.3937746181751</v>
@@ -2140,7 +2140,7 @@
         <v>51.7668973608541</v>
       </c>
       <c r="N28" t="n">
-        <v>28.7934915092847</v>
+        <v>28.463450796597</v>
       </c>
       <c r="O28" t="n">
         <v>18.9029796272211</v>
@@ -2155,7 +2155,7 @@
         <v>39.938769371703</v>
       </c>
       <c r="S28" t="n">
-        <v>13.2567259069375</v>
+        <v>13.5721645997556</v>
       </c>
     </row>
     <row r="29">
@@ -2178,13 +2178,13 @@
         <v>52.9392553035996</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.09463566881961</v>
       </c>
       <c r="H29" t="n">
-        <v>45.4255755095961</v>
+        <v>37.4380907956913</v>
       </c>
       <c r="I29" t="n">
-        <v>0.318279928742377</v>
+        <v>5.60717518119031</v>
       </c>
       <c r="J29" t="n">
         <v>13.3742078518714</v>
@@ -2199,7 +2199,7 @@
         <v>36.964239526389</v>
       </c>
       <c r="N29" t="n">
-        <v>13.2755970268203</v>
+        <v>14.0492559440252</v>
       </c>
       <c r="O29" t="n">
         <v>31.728418729045</v>
@@ -2214,7 +2214,7 @@
         <v>43.5824554228996</v>
       </c>
       <c r="S29" t="n">
-        <v>19.831527774529</v>
+        <v>22.6133508022377</v>
       </c>
     </row>
     <row r="30">
@@ -2237,13 +2237,13 @@
         <v>48.1099817031928</v>
       </c>
       <c r="G30" t="n">
-        <v>35.5817508672811</v>
+        <v>42.1527471323386</v>
       </c>
       <c r="H30" t="n">
-        <v>18.3059999033472</v>
+        <v>20.3468067806291</v>
       </c>
       <c r="I30" t="n">
-        <v>32.6004041958863</v>
+        <v>24.0460713183647</v>
       </c>
       <c r="J30" t="n">
         <v>78.870526234674</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.101663815475</v>
+        <v>39.7444128817394</v>
       </c>
       <c r="O30" t="n">
         <v>47.5143409029583</v>
@@ -2273,7 +2273,7 @@
         <v>41.6758694483253</v>
       </c>
       <c r="S30" t="n">
-        <v>20.2003393319408</v>
+        <v>24.658737603439</v>
       </c>
     </row>
     <row r="31">
@@ -2296,13 +2296,13 @@
         <v>23.9783713381837</v>
       </c>
       <c r="G31" t="n">
-        <v>25.0192671285413</v>
+        <v>28.7288300091587</v>
       </c>
       <c r="H31" t="n">
-        <v>16.9727429205995</v>
+        <v>24.2116844664109</v>
       </c>
       <c r="I31" t="n">
-        <v>10.9145847487639</v>
+        <v>11.2558804697715</v>
       </c>
       <c r="J31" t="n">
         <v>6.56473162728385</v>
@@ -2317,7 +2317,7 @@
         <v>13.8647165945881</v>
       </c>
       <c r="N31" t="n">
-        <v>42.3263833474734</v>
+        <v>43.2537740676277</v>
       </c>
       <c r="O31" t="n">
         <v>62.4816084740481</v>
@@ -2332,7 +2332,7 @@
         <v>31.7819588364985</v>
       </c>
       <c r="S31" t="n">
-        <v>28.6266649525784</v>
+        <v>33.2573565857788</v>
       </c>
     </row>
     <row r="32">
@@ -2355,13 +2355,13 @@
         <v>23.2575234681189</v>
       </c>
       <c r="G32" t="n">
-        <v>25.2789768619127</v>
+        <v>28.8904926158392</v>
       </c>
       <c r="H32" t="n">
-        <v>26.9590326667747</v>
+        <v>31.5345101015875</v>
       </c>
       <c r="I32" t="n">
-        <v>35.09822109093</v>
+        <v>23.2588417842301</v>
       </c>
       <c r="J32" t="n">
         <v>17.2298960134131</v>
@@ -2376,7 +2376,7 @@
         <v>38.1138325902863</v>
       </c>
       <c r="N32" t="n">
-        <v>41.0765393260378</v>
+        <v>41.9794182645194</v>
       </c>
       <c r="O32" t="n">
         <v>58.1603575174963</v>
@@ -2391,7 +2391,7 @@
         <v>24.6503570764613</v>
       </c>
       <c r="S32" t="n">
-        <v>27.6161503078877</v>
+        <v>31.4367776531881</v>
       </c>
     </row>
     <row r="33">
@@ -2414,13 +2414,13 @@
         <v>26.7151764230812</v>
       </c>
       <c r="G33" t="n">
-        <v>32.5502069332092</v>
+        <v>36.6910103345664</v>
       </c>
       <c r="H33" t="n">
-        <v>6.94618797202438</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>17.8155359905446</v>
+        <v>8.57793746703038</v>
       </c>
       <c r="J33" t="n">
         <v>75.9519987737347</v>
@@ -2435,7 +2435,7 @@
         <v>90.5591769068352</v>
       </c>
       <c r="N33" t="n">
-        <v>45.4644719936099</v>
+        <v>46.4996728439492</v>
       </c>
       <c r="O33" t="n">
         <v>50.4128719226932</v>
@@ -2450,7 +2450,7 @@
         <v>26.710508043289</v>
       </c>
       <c r="S33" t="n">
-        <v>30.9289879433282</v>
+        <v>34.2804228483252</v>
       </c>
     </row>
     <row r="34">
@@ -2473,13 +2473,13 @@
         <v>30.158824238667</v>
       </c>
       <c r="G34" t="n">
-        <v>34.9577800348627</v>
+        <v>37.25976559457</v>
       </c>
       <c r="H34" t="n">
-        <v>32.6855814082552</v>
+        <v>43.3039960861368</v>
       </c>
       <c r="I34" t="n">
-        <v>27.4643886113091</v>
+        <v>19.902536774704</v>
       </c>
       <c r="J34" t="n">
         <v>65.7750411942407</v>
@@ -2494,7 +2494,7 @@
         <v>69.9367506869174</v>
       </c>
       <c r="N34" t="n">
-        <v>41.9947058778391</v>
+        <v>42.5702022677659</v>
       </c>
       <c r="O34" t="n">
         <v>41.769553456467</v>
@@ -2509,7 +2509,7 @@
         <v>36.583385707772</v>
       </c>
       <c r="S34" t="n">
-        <v>34.3485090447462</v>
+        <v>36.7931212648168</v>
       </c>
     </row>
     <row r="35">
@@ -2532,13 +2532,13 @@
         <v>52.8761564615678</v>
       </c>
       <c r="G35" t="n">
-        <v>35.5375401661666</v>
+        <v>36.428587865314</v>
       </c>
       <c r="H35" t="n">
-        <v>39.1457532309421</v>
+        <v>58.4425997563963</v>
       </c>
       <c r="I35" t="n">
-        <v>28.6767381339811</v>
+        <v>24.7485157270843</v>
       </c>
       <c r="J35" t="n">
         <v>59.444223384564</v>
@@ -2553,7 +2553,7 @@
         <v>57.853987514281</v>
       </c>
       <c r="N35" t="n">
-        <v>31.9455565662733</v>
+        <v>32.1683184910601</v>
       </c>
       <c r="O35" t="n">
         <v>42.9670346257667</v>
@@ -2568,7 +2568,7 @@
         <v>56.0637066400331</v>
       </c>
       <c r="S35" t="n">
-        <v>36.854336160342</v>
+        <v>39.7219730004192</v>
       </c>
     </row>
     <row r="36">
@@ -2591,13 +2591,13 @@
         <v>85.1561392198646</v>
       </c>
       <c r="G36" t="n">
-        <v>40.0676882799968</v>
+        <v>45.4775655413736</v>
       </c>
       <c r="H36" t="n">
-        <v>21.0410146061224</v>
+        <v>7.60395929667538</v>
       </c>
       <c r="I36" t="n">
-        <v>45.6701745708595</v>
+        <v>45.5148050847922</v>
       </c>
       <c r="J36" t="n">
         <v>57.8162824483382</v>
@@ -2612,7 +2612,7 @@
         <v>57.0630161125803</v>
       </c>
       <c r="N36" t="n">
-        <v>43.8225467253923</v>
+        <v>45.1750160407365</v>
       </c>
       <c r="O36" t="n">
         <v>43.2677895214344</v>
@@ -2627,7 +2627,7 @@
         <v>79.3440985604775</v>
       </c>
       <c r="S36" t="n">
-        <v>42.2912112263797</v>
+        <v>46.1250950588201</v>
       </c>
     </row>
     <row r="37">
@@ -2650,13 +2650,13 @@
         <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>51.2684052329756</v>
+        <v>56.4691317697728</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.27883068341566</v>
       </c>
       <c r="I37" t="n">
-        <v>44.5637368800577</v>
+        <v>43.6494319499189</v>
       </c>
       <c r="J37" t="n">
         <v>56.8883869374155</v>
@@ -2671,7 +2671,7 @@
         <v>37.3113779006249</v>
       </c>
       <c r="N37" t="n">
-        <v>44.7775379463634</v>
+        <v>46.0777195805627</v>
       </c>
       <c r="O37" t="n">
         <v>64.6189109316237</v>
@@ -2686,7 +2686,7 @@
         <v>82.1486069766784</v>
       </c>
       <c r="S37" t="n">
-        <v>63.7786978376575</v>
+        <v>67.3155657703821</v>
       </c>
     </row>
     <row r="38">
@@ -2712,10 +2712,10 @@
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>26.8732505843122</v>
+        <v>47.7570734249959</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.073316998890845</v>
       </c>
       <c r="J38" t="n">
         <v>100</v>
@@ -4342,7 +4342,7 @@
     <col min="1" max="1" width="5.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="4.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
@@ -4384,28 +4384,28 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>2202</v>
+        <v>2930</v>
       </c>
       <c r="C2" t="n">
-        <v>393</v>
+        <v>754</v>
       </c>
       <c r="D2" t="n">
-        <v>1809</v>
+        <v>2176</v>
       </c>
       <c r="E2" t="n">
-        <v>0.41456341575705</v>
+        <v>0.371340841719515</v>
       </c>
       <c r="F2" t="n">
-        <v>201</v>
+        <v>577</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3">
@@ -4413,28 +4413,28 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>1283</v>
+        <v>1701</v>
       </c>
       <c r="C3" t="n">
-        <v>311</v>
+        <v>586</v>
       </c>
       <c r="D3" t="n">
-        <v>972</v>
+        <v>1115</v>
       </c>
       <c r="E3" t="n">
-        <v>0.306074358483997</v>
+        <v>0.257265056899395</v>
       </c>
       <c r="F3" t="n">
-        <v>184</v>
+        <v>449</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4">
@@ -4442,28 +4442,28 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>1336</v>
+        <v>1854</v>
       </c>
       <c r="C4" t="n">
-        <v>306</v>
+        <v>721</v>
       </c>
       <c r="D4" t="n">
-        <v>1030</v>
+        <v>1133</v>
       </c>
       <c r="E4" t="n">
-        <v>0.407826490433252</v>
+        <v>0.3147465512597</v>
       </c>
       <c r="F4" t="n">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H4" t="n">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -4471,28 +4471,28 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>823</v>
+        <v>1136</v>
       </c>
       <c r="C5" t="n">
-        <v>144</v>
+        <v>357</v>
       </c>
       <c r="D5" t="n">
-        <v>679</v>
+        <v>779</v>
       </c>
       <c r="E5" t="n">
-        <v>0.332126144111501</v>
+        <v>0.335143481268363</v>
       </c>
       <c r="F5" t="n">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -4500,28 +4500,28 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>1115</v>
+        <v>1458</v>
       </c>
       <c r="C6" t="n">
-        <v>147</v>
+        <v>417</v>
       </c>
       <c r="D6" t="n">
-        <v>968</v>
+        <v>1041</v>
       </c>
       <c r="E6" t="n">
-        <v>0.393943105505606</v>
+        <v>0.312072458037132</v>
       </c>
       <c r="F6" t="n">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -4529,28 +4529,28 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>926</v>
+        <v>1313</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>400</v>
       </c>
       <c r="D7" t="n">
-        <v>838</v>
+        <v>913</v>
       </c>
       <c r="E7" t="n">
-        <v>0.35661465284194</v>
+        <v>0.216993771409085</v>
       </c>
       <c r="F7" t="n">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -4558,28 +4558,28 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>909</v>
+        <v>1289</v>
       </c>
       <c r="C8" t="n">
-        <v>223</v>
+        <v>630</v>
       </c>
       <c r="D8" t="n">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="E8" t="n">
-        <v>0.299617775585268</v>
+        <v>0.211001850104343</v>
       </c>
       <c r="F8" t="n">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9">
@@ -4587,28 +4587,28 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>935</v>
+        <v>1363</v>
       </c>
       <c r="C9" t="n">
-        <v>180</v>
+        <v>607</v>
       </c>
       <c r="D9" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E9" t="n">
-        <v>0.407203669182593</v>
+        <v>0.319299597816222</v>
       </c>
       <c r="F9" t="n">
-        <v>182</v>
+        <v>476</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -4616,28 +4616,28 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>960</v>
+        <v>1432</v>
       </c>
       <c r="C10" t="n">
-        <v>116</v>
+        <v>468</v>
       </c>
       <c r="D10" t="n">
-        <v>844</v>
+        <v>964</v>
       </c>
       <c r="E10" t="n">
-        <v>0.371425973444607</v>
+        <v>0.359355055121405</v>
       </c>
       <c r="F10" t="n">
-        <v>139</v>
+        <v>491</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11">
@@ -4645,28 +4645,28 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>1388</v>
+        <v>1942</v>
       </c>
       <c r="C11" t="n">
-        <v>318</v>
+        <v>1044</v>
       </c>
       <c r="D11" t="n">
-        <v>1070</v>
+        <v>898</v>
       </c>
       <c r="E11" t="n">
-        <v>0.327581676027054</v>
+        <v>0.228294053586858</v>
       </c>
       <c r="F11" t="n">
-        <v>451</v>
+        <v>810</v>
       </c>
       <c r="G11" t="n">
-        <v>196</v>
+        <v>380</v>
       </c>
       <c r="H11" t="n">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="12">
@@ -4674,28 +4674,28 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>1140</v>
+        <v>1576</v>
       </c>
       <c r="C12" t="n">
-        <v>474</v>
+        <v>1255</v>
       </c>
       <c r="D12" t="n">
-        <v>666</v>
+        <v>321</v>
       </c>
       <c r="E12" t="n">
-        <v>0.232484549375306</v>
+        <v>0.145852064581609</v>
       </c>
       <c r="F12" t="n">
-        <v>208</v>
+        <v>657</v>
       </c>
       <c r="G12" t="n">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="H12" t="n">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -4703,28 +4703,28 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>2724</v>
+        <v>3568</v>
       </c>
       <c r="C13" t="n">
-        <v>200</v>
+        <v>585</v>
       </c>
       <c r="D13" t="n">
-        <v>2524</v>
+        <v>2983</v>
       </c>
       <c r="E13" t="n">
-        <v>0.504734028597665</v>
+        <v>0.464445863212724</v>
       </c>
       <c r="F13" t="n">
-        <v>222</v>
+        <v>492</v>
       </c>
       <c r="G13" t="n">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="H13" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14">
@@ -4732,28 +4732,28 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>1493</v>
+        <v>2050</v>
       </c>
       <c r="C14" t="n">
-        <v>415</v>
+        <v>1038</v>
       </c>
       <c r="D14" t="n">
-        <v>1078</v>
+        <v>1012</v>
       </c>
       <c r="E14" t="n">
-        <v>0.253433473188458</v>
+        <v>0.193917380013403</v>
       </c>
       <c r="F14" t="n">
-        <v>184</v>
+        <v>486</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="H14" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15">
@@ -4761,28 +4761,28 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>2030</v>
+        <v>2930</v>
       </c>
       <c r="C15" t="n">
-        <v>548</v>
+        <v>860</v>
       </c>
       <c r="D15" t="n">
-        <v>1482</v>
+        <v>2070</v>
       </c>
       <c r="E15" t="n">
-        <v>0.429356911951754</v>
+        <v>0.441508017174573</v>
       </c>
       <c r="F15" t="n">
-        <v>216</v>
+        <v>489</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H15" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16">
@@ -4790,28 +4790,28 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>1547</v>
+        <v>2201</v>
       </c>
       <c r="C16" t="n">
-        <v>833</v>
+        <v>1076</v>
       </c>
       <c r="D16" t="n">
-        <v>714</v>
+        <v>1125</v>
       </c>
       <c r="E16" t="n">
-        <v>0.215585487518229</v>
+        <v>0.258027708121438</v>
       </c>
       <c r="F16" t="n">
-        <v>236</v>
+        <v>518</v>
       </c>
       <c r="G16" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="H16" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
@@ -4819,28 +4819,28 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>1839</v>
+        <v>2598</v>
       </c>
       <c r="C17" t="n">
-        <v>863</v>
+        <v>1136</v>
       </c>
       <c r="D17" t="n">
-        <v>976</v>
+        <v>1462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.305654649530152</v>
+        <v>0.316118342893866</v>
       </c>
       <c r="F17" t="n">
-        <v>310</v>
+        <v>866</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18">
@@ -4848,28 +4848,28 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>1471</v>
+        <v>2094</v>
       </c>
       <c r="C18" t="n">
-        <v>541</v>
+        <v>792</v>
       </c>
       <c r="D18" t="n">
-        <v>930</v>
+        <v>1302</v>
       </c>
       <c r="E18" t="n">
-        <v>0.357865497320805</v>
+        <v>0.344661707621456</v>
       </c>
       <c r="F18" t="n">
-        <v>178</v>
+        <v>491</v>
       </c>
       <c r="G18" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H18" t="n">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19">
@@ -4877,28 +4877,28 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>1343</v>
+        <v>2024</v>
       </c>
       <c r="C19" t="n">
-        <v>525</v>
+        <v>992</v>
       </c>
       <c r="D19" t="n">
-        <v>818</v>
+        <v>1032</v>
       </c>
       <c r="E19" t="n">
-        <v>0.318480817968213</v>
+        <v>0.297478492154233</v>
       </c>
       <c r="F19" t="n">
-        <v>218</v>
+        <v>398</v>
       </c>
       <c r="G19" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20">
@@ -4906,28 +4906,28 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>1196</v>
+        <v>1764</v>
       </c>
       <c r="C20" t="n">
-        <v>805</v>
+        <v>1187</v>
       </c>
       <c r="D20" t="n">
-        <v>391</v>
+        <v>577</v>
       </c>
       <c r="E20" t="n">
-        <v>0.364618377792222</v>
+        <v>0.361939976588758</v>
       </c>
       <c r="F20" t="n">
-        <v>327</v>
+        <v>642</v>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="H20" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -4935,28 +4935,28 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>1185</v>
+        <v>1703</v>
       </c>
       <c r="C21" t="n">
-        <v>291</v>
+        <v>881</v>
       </c>
       <c r="D21" t="n">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="E21" t="n">
-        <v>0.357804591372941</v>
+        <v>0.225687070208621</v>
       </c>
       <c r="F21" t="n">
-        <v>274</v>
+        <v>616</v>
       </c>
       <c r="G21" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
@@ -4964,28 +4964,28 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>1523</v>
+        <v>2199</v>
       </c>
       <c r="C22" t="n">
-        <v>265</v>
+        <v>488</v>
       </c>
       <c r="D22" t="n">
-        <v>1258</v>
+        <v>1711</v>
       </c>
       <c r="E22" t="n">
-        <v>0.405353990520231</v>
+        <v>0.404509501303729</v>
       </c>
       <c r="F22" t="n">
-        <v>321</v>
+        <v>775</v>
       </c>
       <c r="G22" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="H22" t="n">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23">
@@ -4993,28 +4993,28 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>3311</v>
+        <v>4768</v>
       </c>
       <c r="C23" t="n">
-        <v>1268</v>
+        <v>1682</v>
       </c>
       <c r="D23" t="n">
-        <v>2043</v>
+        <v>3086</v>
       </c>
       <c r="E23" t="n">
-        <v>0.340169363471958</v>
+        <v>0.387406754727924</v>
       </c>
       <c r="F23" t="n">
-        <v>704</v>
+        <v>1596</v>
       </c>
       <c r="G23" t="n">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="H23" t="n">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24">
@@ -5022,28 +5022,28 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>1613</v>
+        <v>2456</v>
       </c>
       <c r="C24" t="n">
-        <v>271</v>
+        <v>592</v>
       </c>
       <c r="D24" t="n">
-        <v>1342</v>
+        <v>1864</v>
       </c>
       <c r="E24" t="n">
-        <v>0.375586144801021</v>
+        <v>0.376664738728018</v>
       </c>
       <c r="F24" t="n">
-        <v>352</v>
+        <v>667</v>
       </c>
       <c r="G24" t="n">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="H24" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
@@ -5051,28 +5051,28 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>1546</v>
+        <v>2195</v>
       </c>
       <c r="C25" t="n">
-        <v>765</v>
+        <v>1094</v>
       </c>
       <c r="D25" t="n">
-        <v>781</v>
+        <v>1101</v>
       </c>
       <c r="E25" t="n">
-        <v>0.196198819287055</v>
+        <v>0.216444310788738</v>
       </c>
       <c r="F25" t="n">
-        <v>481</v>
+        <v>944</v>
       </c>
       <c r="G25" t="n">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="H25" t="n">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
@@ -5080,28 +5080,28 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>2627</v>
+        <v>3599</v>
       </c>
       <c r="C26" t="n">
-        <v>3227</v>
+        <v>4052</v>
       </c>
       <c r="D26" t="n">
-        <v>-600</v>
+        <v>-453</v>
       </c>
       <c r="E26" t="n">
-        <v>0.13591822803872</v>
+        <v>0.138020086565943</v>
       </c>
       <c r="F26" t="n">
-        <v>846</v>
+        <v>1607</v>
       </c>
       <c r="G26" t="n">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="H26" t="n">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="I26" t="n">
-        <v>32</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27">
@@ -5109,28 +5109,28 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>2455</v>
+        <v>3346</v>
       </c>
       <c r="C27" t="n">
-        <v>939</v>
+        <v>1173</v>
       </c>
       <c r="D27" t="n">
-        <v>1516</v>
+        <v>2173</v>
       </c>
       <c r="E27" t="n">
-        <v>0.293450816762921</v>
+        <v>0.287968035509108</v>
       </c>
       <c r="F27" t="n">
-        <v>251</v>
+        <v>496</v>
       </c>
       <c r="G27" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="H27" t="n">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
@@ -5138,28 +5138,28 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>1727</v>
+        <v>2656</v>
       </c>
       <c r="C28" t="n">
-        <v>747</v>
+        <v>1108</v>
       </c>
       <c r="D28" t="n">
-        <v>980</v>
+        <v>1548</v>
       </c>
       <c r="E28" t="n">
-        <v>0.328592348989721</v>
+        <v>0.323608681826978</v>
       </c>
       <c r="F28" t="n">
-        <v>226</v>
+        <v>571</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="H28" t="n">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I28" t="n">
-        <v>17</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
@@ -5167,28 +5167,28 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>2393</v>
+        <v>3304</v>
       </c>
       <c r="C29" t="n">
-        <v>3079</v>
+        <v>3393</v>
       </c>
       <c r="D29" t="n">
-        <v>-686</v>
+        <v>-89</v>
       </c>
       <c r="E29" t="n">
-        <v>0.088665581071822</v>
+        <v>0.121420488659168</v>
       </c>
       <c r="F29" t="n">
-        <v>462</v>
+        <v>853</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H29" t="n">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
@@ -5196,28 +5196,28 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>2339</v>
+        <v>4043</v>
       </c>
       <c r="C30" t="n">
-        <v>2180</v>
+        <v>2556</v>
       </c>
       <c r="D30" t="n">
-        <v>159</v>
+        <v>1487</v>
       </c>
       <c r="E30" t="n">
-        <v>0.263939381022422</v>
+        <v>0.353346621038857</v>
       </c>
       <c r="F30" t="n">
-        <v>343</v>
+        <v>744</v>
       </c>
       <c r="G30" t="n">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="H30" t="n">
-        <v>125</v>
+        <v>381</v>
       </c>
       <c r="I30" t="n">
-        <v>61</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31">
@@ -5225,28 +5225,28 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>2850</v>
+        <v>4272</v>
       </c>
       <c r="C31" t="n">
-        <v>4851</v>
+        <v>5211</v>
       </c>
       <c r="D31" t="n">
-        <v>-2001</v>
+        <v>-939</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0699562919583535</v>
+        <v>0.117197761318129</v>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>713</v>
       </c>
       <c r="G31" t="n">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="H31" t="n">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="I31" t="n">
-        <v>34</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
@@ -5254,28 +5254,28 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>2426</v>
+        <v>3407</v>
       </c>
       <c r="C32" t="n">
-        <v>3329</v>
+        <v>3594</v>
       </c>
       <c r="D32" t="n">
-        <v>-903</v>
+        <v>-187</v>
       </c>
       <c r="E32" t="n">
-        <v>0.118621790706484</v>
+        <v>0.167045159185409</v>
       </c>
       <c r="F32" t="n">
-        <v>304</v>
+        <v>675</v>
       </c>
       <c r="G32" t="n">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="H32" t="n">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="I32" t="n">
-        <v>17</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33">
@@ -5283,28 +5283,28 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>782</v>
+        <v>1184</v>
       </c>
       <c r="C33" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="D33" t="n">
-        <v>570</v>
+        <v>834</v>
       </c>
       <c r="E33" t="n">
-        <v>0.311718688967011</v>
+        <v>0.376540151372366</v>
       </c>
       <c r="F33" t="n">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H33" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -5312,28 +5312,28 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>878</v>
+        <v>1554</v>
       </c>
       <c r="C34" t="n">
-        <v>567</v>
+        <v>932</v>
       </c>
       <c r="D34" t="n">
-        <v>311</v>
+        <v>622</v>
       </c>
       <c r="E34" t="n">
-        <v>0.291811338018516</v>
+        <v>0.335607363190045</v>
       </c>
       <c r="F34" t="n">
-        <v>218</v>
+        <v>518</v>
       </c>
       <c r="G34" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I34" t="n">
-        <v>28</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35">
@@ -5341,28 +5341,28 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>1319</v>
+        <v>1999</v>
       </c>
       <c r="C35" t="n">
-        <v>510</v>
+        <v>698</v>
       </c>
       <c r="D35" t="n">
-        <v>809</v>
+        <v>1301</v>
       </c>
       <c r="E35" t="n">
-        <v>0.378714904720198</v>
+        <v>0.408962391444923</v>
       </c>
       <c r="F35" t="n">
-        <v>269</v>
+        <v>692</v>
       </c>
       <c r="G35" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="H35" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36">
@@ -5370,28 +5370,28 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>1267</v>
+        <v>2147</v>
       </c>
       <c r="C36" t="n">
-        <v>192</v>
+        <v>378</v>
       </c>
       <c r="D36" t="n">
-        <v>1075</v>
+        <v>1769</v>
       </c>
       <c r="E36" t="n">
-        <v>0.368834544077712</v>
+        <v>0.452346923703795</v>
       </c>
       <c r="F36" t="n">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="G36" t="n">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H36" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
@@ -5399,28 +5399,28 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>1606</v>
+        <v>2472</v>
       </c>
       <c r="C37" t="n">
-        <v>398</v>
+        <v>530</v>
       </c>
       <c r="D37" t="n">
-        <v>1208</v>
+        <v>1942</v>
       </c>
       <c r="E37" t="n">
-        <v>0.455899104674615</v>
+        <v>0.543192064178669</v>
       </c>
       <c r="F37" t="n">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="G37" t="n">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="H37" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I37" t="n">
-        <v>45</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38">
@@ -5428,28 +5428,28 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>593</v>
+        <v>1132</v>
       </c>
       <c r="C38" t="n">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="D38" t="n">
-        <v>480</v>
+        <v>938</v>
       </c>
       <c r="E38" t="n">
-        <v>0.582543504392244</v>
+        <v>0.634073074112879</v>
       </c>
       <c r="F38" t="n">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
